--- a/data/trans_camb/P1432-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1432-Dificultad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.346350133656431</v>
+        <v>-2.242127503157624</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.990058124158513</v>
+        <v>-2.919317946029664</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.291768701018688</v>
+        <v>-2.468664721785496</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.446093050506579</v>
+        <v>-2.608510194606788</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.060502446590117</v>
+        <v>-1.939179387647768</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.438169263728959</v>
+        <v>-2.459433533677086</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.282202525952218</v>
+        <v>0.3657979657506849</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.6450233652729283</v>
+        <v>-0.609150279356695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7093145182469571</v>
+        <v>0.509245331614714</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2380667328204722</v>
+        <v>0.2747396356333608</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.04049707190385275</v>
+        <v>0.0001751400853609782</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.5671949647828808</v>
+        <v>-0.5200902950410659</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7924241488050954</v>
+        <v>-0.7841470399942032</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9624457408016323</v>
+        <v>-0.9578829519687465</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5923445264807571</v>
+        <v>-0.5935745150959559</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6541130140044568</v>
+        <v>-0.65465572423383</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6165929005408468</v>
+        <v>-0.5822241280043171</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7303547843503445</v>
+        <v>-0.7297767956770982</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3935980670167753</v>
+        <v>0.4932962823154917</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3610854399696256</v>
+        <v>-0.3755703335060248</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3208040848812537</v>
+        <v>0.2392042400964318</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1316189972267638</v>
+        <v>0.136123000412568</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01454575075144815</v>
+        <v>0.04981916713485867</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2274777525839709</v>
+        <v>-0.2476831991446999</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.69275130242193</v>
+        <v>-1.770559709041418</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.797164216716926</v>
+        <v>-1.88628644756201</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5303618621723836</v>
+        <v>-0.4962713044831328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5586562021980608</v>
+        <v>-0.62567033825964</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9753589615169769</v>
+        <v>-0.9166717120621374</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.8768561530441952</v>
+        <v>-0.9779540961281854</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04190247775477487</v>
+        <v>-0.05889007005267788</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.2046396561991111</v>
+        <v>-0.2510615792100365</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.242619282715995</v>
+        <v>1.221241817534119</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.27684429193284</v>
+        <v>1.426795169431435</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.42854842308325</v>
+        <v>0.4215507506414237</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2841931750807464</v>
+        <v>0.30312993939557</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.9314508986133686</v>
+        <v>-0.9377057851680485</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.9290485155922555</v>
+        <v>-0.9300007548138403</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4855564293271698</v>
+        <v>-0.4233451211555627</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4721875479632185</v>
+        <v>-0.4887343797846711</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6212195629005465</v>
+        <v>-0.6421114677276083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6132449505560672</v>
+        <v>-0.6513619034876924</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5801682045487216</v>
+        <v>0.2337963924532129</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02367746865391659</v>
+        <v>-0.07029298533220392</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.177357747821693</v>
+        <v>2.716238461093035</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.559292956018267</v>
+        <v>2.768625911493047</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5429956048871191</v>
+        <v>0.4642352151639842</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3706768032064261</v>
+        <v>0.3472798440954822</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.008558749783298</v>
+        <v>-0.9648637052922407</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6329934280695849</v>
+        <v>-0.5393726158475891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2428996797148329</v>
+        <v>-0.2548775607147239</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.003572225986901</v>
+        <v>-0.9783056563776442</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3504863282845911</v>
+        <v>-0.3391010010092587</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.5822512199836293</v>
+        <v>-0.5657716417747433</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4179484993361874</v>
+        <v>0.4320853319150169</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.003151169200766</v>
+        <v>1.04456209728506</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.802953193453582</v>
+        <v>1.806873744343684</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4485397507249527</v>
+        <v>0.4173810526127728</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7844446712839003</v>
+        <v>0.9310405331124533</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5367074906437599</v>
+        <v>0.535974690276078</v>
       </c>
     </row>
     <row r="19">
@@ -1033,20 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8662122529480348</v>
+        <v>-0.863063816681803</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6839019677740115</v>
+        <v>-0.5943438529385103</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4608110063869334</v>
-      </c>
-      <c r="F20" s="6" t="inlineStr"/>
+        <v>-0.4368825459381205</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4569258373120106</v>
+        <v>-0.3874116142636078</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6406824535381647</v>
+        <v>-0.6083059527244554</v>
       </c>
     </row>
     <row r="21">
@@ -1057,20 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.331031421576264</v>
+        <v>1.402069589139769</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.522806389570882</v>
+        <v>2.827829906148321</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.772764532697921</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr"/>
+        <v>5.5970068159252</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>2.264251286334213</v>
+      </c>
       <c r="G21" s="6" t="n">
-        <v>1.707299641566815</v>
+        <v>1.832106161911339</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.227669950262982</v>
+        <v>1.255104289112623</v>
       </c>
     </row>
     <row r="22">
@@ -1111,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4018568518250166</v>
+        <v>-0.3887668449261423</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3783803273475627</v>
+        <v>-0.4712513697418695</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.026075383519715</v>
+        <v>-1.87789955773743</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.522569793245792</v>
+        <v>-1.450087853290499</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6521047077712313</v>
+        <v>-0.6621862152766431</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4934399869012723</v>
+        <v>-0.475094048518066</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.262294402323402</v>
+        <v>1.174773330516021</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.028028406202557</v>
+        <v>1.011720514397433</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.744398664210937</v>
+        <v>1.666237448915111</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.923381760649051</v>
+        <v>2.664892207204168</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.214673797350362</v>
+        <v>1.232535295812123</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.68502800989494</v>
+        <v>1.713232782945436</v>
       </c>
     </row>
     <row r="25">
@@ -1191,16 +1195,16 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.8229032244265959</v>
+        <v>-0.7476049223932711</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6364574997413885</v>
+        <v>-0.6437641918461492</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5693119234527927</v>
+        <v>-0.511429142621435</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4874639563009748</v>
+        <v>-0.4609494261667058</v>
       </c>
     </row>
     <row r="27">
@@ -1213,16 +1217,16 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>2.966525182953573</v>
+        <v>2.992433897557233</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4.7572982545376</v>
+        <v>4.569614502129899</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.112988863925783</v>
+        <v>3.856528749925825</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.241641511183222</v>
+        <v>5.070459839547648</v>
       </c>
     </row>
     <row r="28">
@@ -1263,22 +1267,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.9239914279264281</v>
+        <v>-0.9009180106684673</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9967914446677852</v>
+        <v>-0.9998848059674661</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.4621407516104714</v>
+        <v>-0.4807088767087997</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.6094126310812402</v>
+        <v>-0.6488368213037999</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.540703120385412</v>
+        <v>-0.5260877975537047</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.6938094561692508</v>
+        <v>-0.6801748107874046</v>
       </c>
     </row>
     <row r="30">
@@ -1289,22 +1293,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03417501011625881</v>
+        <v>0.01601559092269554</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1686999468699864</v>
+        <v>-0.1584780555635047</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7049152952265815</v>
+        <v>0.722883933620063</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5731991947076142</v>
+        <v>0.5631055883041283</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2122301648775057</v>
+        <v>0.2203843486430458</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.05521699590441627</v>
+        <v>0.0724442503995755</v>
       </c>
     </row>
     <row r="31">
@@ -1341,22 +1345,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.684105485712461</v>
+        <v>-0.6580897819893955</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7284626680443694</v>
+        <v>-0.7345113033804339</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2568060296961027</v>
+        <v>-0.2910123371129817</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3425633354168875</v>
+        <v>-0.3648342031450308</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.363343553129039</v>
+        <v>-0.34953291278916</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4663229673307162</v>
+        <v>-0.4467263687010818</v>
       </c>
     </row>
     <row r="33">
@@ -1367,22 +1371,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.07115937066176638</v>
+        <v>0.0604198736677532</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1230258921979411</v>
+        <v>-0.1703854427311455</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5926827135544771</v>
+        <v>0.6101972768802498</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5082045284497961</v>
+        <v>0.4948078433732012</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.195878376684443</v>
+        <v>0.2031603798773317</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05011666083074471</v>
+        <v>0.07666926362849395</v>
       </c>
     </row>
     <row r="34">
